--- a/output/fit_clients/fit_round_319.xlsx
+++ b/output/fit_clients/fit_round_319.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1585347055.09598</v>
+        <v>1843091924.707517</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08850192311364882</v>
+        <v>0.09887091052014511</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0425330762519231</v>
+        <v>0.04007173048458162</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>792673467.4228408</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1911858976.054094</v>
+        <v>2403655269.72918</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1494988737734736</v>
+        <v>0.1660796958097407</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04348043457144549</v>
+        <v>0.03338684338670821</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>955929514.4404987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4194986395.309177</v>
+        <v>3676009058.963361</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1432749029794825</v>
+        <v>0.1240992469991885</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02375227865611184</v>
+        <v>0.02383477248211358</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>115</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2097493225.652182</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3385156268.893133</v>
+        <v>3253962109.573893</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08232706386767558</v>
+        <v>0.08815574960519838</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0380958801093263</v>
+        <v>0.03151829048355807</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>119</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1692578178.842682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2203869193.308499</v>
+        <v>2592601372.036513</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1014180456075031</v>
+        <v>0.1069466724882469</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03778124440065413</v>
+        <v>0.05194803794441511</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>60</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1101934604.190462</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2509543919.855691</v>
+        <v>1989414478.276813</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07998864048542591</v>
+        <v>0.09423526015341158</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03549181383128831</v>
+        <v>0.04105152580254994</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>99</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1254771972.091054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3956530077.070977</v>
+        <v>2480383869.713015</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1803347455818027</v>
+        <v>0.1839919921776973</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02368836661547472</v>
+        <v>0.02398881388082077</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>101</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1978265193.836953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2278028856.263203</v>
+        <v>1865947831.725215</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1468805358296805</v>
+        <v>0.1329301300596768</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03456215452762567</v>
+        <v>0.03731472109952754</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1139014416.162168</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5072770684.414123</v>
+        <v>5116749077.708504</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2112122069352722</v>
+        <v>0.1448432621503828</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04649835838058871</v>
+        <v>0.04603200512254115</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>133</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2536385447.135111</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3715673457.052771</v>
+        <v>3099287474.628683</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1349465060288953</v>
+        <v>0.1257068960504573</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04120042819401624</v>
+        <v>0.03131423399254842</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>131</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1857836721.351542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3186904448.569397</v>
+        <v>2541415946.285537</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1376602552777414</v>
+        <v>0.174669598622934</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0398493110795427</v>
+        <v>0.04890502258762788</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>108</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1593452259.41994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4571166268.073662</v>
+        <v>4996857547.45876</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07452417237663435</v>
+        <v>0.09234157496802212</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02779244165198144</v>
+        <v>0.02136036146353329</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>106</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2285583159.962233</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2490442628.367781</v>
+        <v>3461174183.632008</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1658541890748979</v>
+        <v>0.1495680482673372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04215334162433828</v>
+        <v>0.03769764412761727</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1245221385.531564</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1416282530.085497</v>
+        <v>1440831574.315031</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09615225362714401</v>
+        <v>0.08169277045080273</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0360550421851416</v>
+        <v>0.02985483623136795</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>708141331.5712416</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2300838042.514572</v>
+        <v>2663636970.193446</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09346434292858548</v>
+        <v>0.08889617610327721</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0374784636663353</v>
+        <v>0.04353685301471256</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>63</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1150419069.88159</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4070349076.747549</v>
+        <v>5094193218.286672</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1415017096465332</v>
+        <v>0.1282284591645162</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03507901721074901</v>
+        <v>0.04918340416032946</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>93</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2035174569.455311</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2713870327.552177</v>
+        <v>3603328076.508701</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1814600506076846</v>
+        <v>0.1333005745564809</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03341400092943819</v>
+        <v>0.02396781045674173</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>104</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1356935214.810723</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1018255191.528339</v>
+        <v>1279462873.962192</v>
       </c>
       <c r="F19" t="n">
-        <v>0.160738761861637</v>
+        <v>0.1858655827581107</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01904427058214122</v>
+        <v>0.0264119483560282</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>509127629.4550875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1721586797.67888</v>
+        <v>2598002927.773314</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1321446027257704</v>
+        <v>0.1062120967837494</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02607876586860186</v>
+        <v>0.02628908762495188</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>860793454.8330085</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2402864725.44866</v>
+        <v>1969402657.785266</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1021460227089842</v>
+        <v>0.06897204433197829</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03336651992569006</v>
+        <v>0.04058873195542179</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1201432360.120065</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3774629976.947111</v>
+        <v>2739944599.858714</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1426223404740574</v>
+        <v>0.1371450014508362</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05395979913808285</v>
+        <v>0.036068378447868</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>87</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1887315003.624168</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1225192830.79421</v>
+        <v>1545209521.284186</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1183159636372386</v>
+        <v>0.1742082942987069</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04983890565331982</v>
+        <v>0.04244889802759284</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>612596447.6344838</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3429313130.098876</v>
+        <v>2545508830.38097</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1297055768009196</v>
+        <v>0.1349412519945109</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03700304461321921</v>
+        <v>0.0371174693758289</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>93</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1714656571.428968</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1476861325.817239</v>
+        <v>1018230850.475324</v>
       </c>
       <c r="F25" t="n">
-        <v>0.109436383173712</v>
+        <v>0.0764373513576035</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02526085950864943</v>
+        <v>0.02578455351074326</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>738430617.1855394</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1061928512.236456</v>
+        <v>1005610586.076477</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1102477806287359</v>
+        <v>0.08539261315877537</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03816659264330514</v>
+        <v>0.03322691231082327</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>530964243.4145813</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4457792287.341431</v>
+        <v>3023152898.382471</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1486988676182043</v>
+        <v>0.134247417953969</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01782560748736623</v>
+        <v>0.02362886803138984</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2228896131.066858</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3725524887.86603</v>
+        <v>2402146480.144006</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09709577558055167</v>
+        <v>0.1022750660119304</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04478804035817684</v>
+        <v>0.04896358713417003</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>106</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1862762518.134581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5753144715.260482</v>
+        <v>5767069417.608051</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09466430680181807</v>
+        <v>0.1359315177948249</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03641045713409576</v>
+        <v>0.0447700901513101</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>140</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2876572253.057721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1532984975.426257</v>
+        <v>2320863872.657385</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08662040867658582</v>
+        <v>0.1083213562473196</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03064459174493769</v>
+        <v>0.02891996166655258</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>766492471.9728996</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1472352514.041889</v>
+        <v>1253502192.358305</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08834357317700103</v>
+        <v>0.07754375651349847</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04698909686930432</v>
+        <v>0.03778064393377507</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>736176144.3884331</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1501929476.5784</v>
+        <v>1370549365.172129</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07725701794218201</v>
+        <v>0.08313896889815421</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0330860848901697</v>
+        <v>0.0277614655500731</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>750964807.0227528</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1911585228.575121</v>
+        <v>2930810467.171493</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1681883253379233</v>
+        <v>0.2072720326433493</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05731092897628944</v>
+        <v>0.04562783616348718</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>95</v>
-      </c>
-      <c r="J33" t="n">
-        <v>955792702.6352673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1084173949.429485</v>
+        <v>1520340473.41085</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09825152488159418</v>
+        <v>0.07689283605441155</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02708748162738753</v>
+        <v>0.02485748010937935</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>542086998.736279</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1029988290.854283</v>
+        <v>1347850132.032888</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1016584894525044</v>
+        <v>0.08899605364560878</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0371979254785385</v>
+        <v>0.03722694447541851</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>514994157.435576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2254659632.464484</v>
+        <v>2775709805.753992</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1094280287009248</v>
+        <v>0.1124748931063264</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01991318345708014</v>
+        <v>0.02481913618545515</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>79</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1127329857.883069</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2715194535.610119</v>
+        <v>2859414831.261177</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07734187109263031</v>
+        <v>0.09920756000725969</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0329004215092683</v>
+        <v>0.02829849743767986</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>83</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1357597393.462427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1323372299.922603</v>
+        <v>2144324557.045778</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09425999414611641</v>
+        <v>0.1171916873224275</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02916999194710006</v>
+        <v>0.03740730920402226</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>661686224.1720042</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1904934314.369391</v>
+        <v>2023626440.812373</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1760986801051443</v>
+        <v>0.1527824260358134</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02643770538381331</v>
+        <v>0.02192521112080291</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>952467166.1509051</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1633119464.368371</v>
+        <v>1338674225.671173</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1575618038493619</v>
+        <v>0.1098821212338028</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04482236203442547</v>
+        <v>0.04116235780872408</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>816559665.0712781</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2522308261.702884</v>
+        <v>1948706918.987087</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1105139414943779</v>
+        <v>0.1132460605316544</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03511324137781769</v>
+        <v>0.04395264077186248</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>81</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1261154153.953211</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3166365398.515878</v>
+        <v>3698489132.618079</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1026018522505103</v>
+        <v>0.1199721562570476</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03812413540389897</v>
+        <v>0.0454961779533606</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1583182671.176535</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2688233255.196103</v>
+        <v>2678390940.681967</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1544289982953473</v>
+        <v>0.1810669316311405</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02323242337015159</v>
+        <v>0.0229487453191053</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>114</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1344116657.336416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2006926568.053697</v>
+        <v>2141858167.885244</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06356436389052293</v>
+        <v>0.08361541872505029</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02282419243819867</v>
+        <v>0.03224303401173145</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1003463391.744579</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1900172958.041168</v>
+        <v>1579919659.698374</v>
       </c>
       <c r="F45" t="n">
-        <v>0.158122127804101</v>
+        <v>0.1215496271526045</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0339031760925357</v>
+        <v>0.03968275829465061</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>950086459.8060594</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4813377968.417648</v>
+        <v>3891222419.85399</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1217659111999442</v>
+        <v>0.1413711598650456</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05498021650715481</v>
+        <v>0.0389712648193133</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>113</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2406689000.32541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4194194601.212759</v>
+        <v>3913305960.780338</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1670256989062329</v>
+        <v>0.1416012359238513</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03671487591789911</v>
+        <v>0.04591206911806667</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>85</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2097097310.730504</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4418525937.145883</v>
+        <v>4148087320.394104</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07554543156627434</v>
+        <v>0.09322709448533972</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03285411770331698</v>
+        <v>0.03212866947558837</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2209262978.621232</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1638894437.396198</v>
+        <v>1800697752.794724</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1901330751632167</v>
+        <v>0.1191616180131743</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0360829145297905</v>
+        <v>0.04252983012080541</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>819447229.135996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2593659929.495316</v>
+        <v>4140782980.703069</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1254131979270354</v>
+        <v>0.1531280890380989</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04876806041566051</v>
+        <v>0.05289656675984348</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>108</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1296830053.484935</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1307425037.078641</v>
+        <v>1428105279.87625</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1239923072956631</v>
+        <v>0.1659124486818177</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05060161309413892</v>
+        <v>0.03714903356453406</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>653712552.6866286</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5294228335.442232</v>
+        <v>3842839491.024068</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09921017953900307</v>
+        <v>0.1173861721422459</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0448368159379806</v>
+        <v>0.04898002410454477</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>131</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2647114148.03363</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2690702892.139802</v>
+        <v>2856249046.07318</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1843805658081814</v>
+        <v>0.1271973973082312</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03404824870723296</v>
+        <v>0.03132744826602014</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>91</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1345351499.896237</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4605077753.35745</v>
+        <v>4087564707.751054</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1026100352851237</v>
+        <v>0.1699079118217774</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03543794630307036</v>
+        <v>0.04686952476016173</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>106</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2302538988.285914</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4091177459.67009</v>
+        <v>4199432443.356846</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1866546458154129</v>
+        <v>0.1807602375918267</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02693280659148094</v>
+        <v>0.02193282998723796</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2045588708.752661</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1815723729.758291</v>
+        <v>1532205912.940899</v>
       </c>
       <c r="F56" t="n">
-        <v>0.132003037218479</v>
+        <v>0.1255930531926432</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04603448495602508</v>
+        <v>0.05458029416702859</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>907861860.3764254</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3231599681.631917</v>
+        <v>3266143638.470098</v>
       </c>
       <c r="F57" t="n">
-        <v>0.159230600067759</v>
+        <v>0.1505852278031403</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02100926480843432</v>
+        <v>0.02220064521319843</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>101</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1615799864.668776</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1219398730.023431</v>
+        <v>1702602921.453966</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1469033911447748</v>
+        <v>0.1914490653780655</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0293159752047689</v>
+        <v>0.03382783648845792</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>609699421.7572067</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3309309265.06046</v>
+        <v>3702821500.434088</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08818337029851706</v>
+        <v>0.09476654995037941</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04691462576119471</v>
+        <v>0.03699313472101998</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>87</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1654654641.804089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3567595517.96047</v>
+        <v>3551101634.097849</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1514872012533461</v>
+        <v>0.203710926566492</v>
       </c>
       <c r="G60" t="n">
-        <v>0.030647211201815</v>
+        <v>0.02988698675725876</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1783797888.871882</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3408626658.381551</v>
+        <v>2736170774.750943</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1682503658963339</v>
+        <v>0.1365252415970568</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02342979508754864</v>
+        <v>0.02448576821006283</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>108</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1704313271.118648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1316645817.154217</v>
+        <v>1867632774.246041</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1181261364961977</v>
+        <v>0.1648822264196751</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03170623103572705</v>
+        <v>0.04393366416154001</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>658322864.1414715</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4559173038.159728</v>
+        <v>5536927426.453852</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08873559683035284</v>
+        <v>0.08410886320398935</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03557390340303115</v>
+        <v>0.03231957519264095</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>91</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2279586556.501548</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3633773605.857595</v>
+        <v>3895610393.126032</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1666424382938207</v>
+        <v>0.1160421039352615</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02737053708129197</v>
+        <v>0.02199209623076242</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>99</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1816886813.027523</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4397557780.964036</v>
+        <v>5403082190.659055</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1130951833074224</v>
+        <v>0.1627424093861762</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03167957022424086</v>
+        <v>0.03233856039730663</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>114</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2198778885.349766</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4383152146.933664</v>
+        <v>4813053054.126001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1465823972870399</v>
+        <v>0.1011412862729308</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0435482986081803</v>
+        <v>0.04990939383985052</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>92</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2191576067.618102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3298463814.659767</v>
+        <v>2310524436.120086</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09082714108940428</v>
+        <v>0.08718871147319956</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03319847405188811</v>
+        <v>0.03139995832277323</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>101</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1649231900.332671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4148334510.194004</v>
+        <v>5603947538.678747</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1439039643894138</v>
+        <v>0.1300400165456948</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0484698083248529</v>
+        <v>0.03789666686116288</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2074167259.879512</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1911071908.321416</v>
+        <v>2012296261.180905</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1428596260349293</v>
+        <v>0.1371715146989003</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04259376829279414</v>
+        <v>0.04759346944194232</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>955535947.6479701</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2626522644.249609</v>
+        <v>3390276457.909874</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09477774786914483</v>
+        <v>0.07851613369731933</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04668788994463456</v>
+        <v>0.0309986463679582</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>91</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1313261274.886554</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4285675519.426343</v>
+        <v>3963954604.121378</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1641749389390509</v>
+        <v>0.1856565450365533</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0280329521569172</v>
+        <v>0.02991612511377481</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>116</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2142837812.080192</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1866845852.78591</v>
+        <v>1504059241.026585</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07008747466140017</v>
+        <v>0.06828960020974904</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04933069794542588</v>
+        <v>0.04408163873465688</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>933422894.2146763</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2180485212.968004</v>
+        <v>2338154148.517511</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08882601717570639</v>
+        <v>0.0908407462292264</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04963570955484122</v>
+        <v>0.03909788724810514</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>121</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1090242677.524003</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2820332124.718757</v>
+        <v>3109298691.347067</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1602527182634446</v>
+        <v>0.1528603124361269</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03064581597474272</v>
+        <v>0.03401645713112689</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>108</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1410166143.306835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2267985053.29325</v>
+        <v>1789431673.729265</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1403059941643913</v>
+        <v>0.1663265713019921</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02406058401672235</v>
+        <v>0.03292489189652371</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1133992465.776552</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4436790670.201333</v>
+        <v>5019156798.114468</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1021826771124741</v>
+        <v>0.100321849919446</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02734294631616648</v>
+        <v>0.02422629759480413</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2218395338.160521</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1627330349.779215</v>
+        <v>1850202664.60671</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1189437019194464</v>
+        <v>0.1216119138151447</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02342336452976213</v>
+        <v>0.02824477907504694</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>813665181.3480985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3263357549.347789</v>
+        <v>4002923086.880892</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1052849736783247</v>
+        <v>0.1170625886792854</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03699137520380805</v>
+        <v>0.04612805360016028</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>110</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1631678793.137797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1596040637.635601</v>
+        <v>1582972936.16106</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1173309029923483</v>
+        <v>0.134953053684761</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03500603442721484</v>
+        <v>0.03252512000936196</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>798020369.7974706</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4415830132.857535</v>
+        <v>4019359431.567235</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0875656666627016</v>
+        <v>0.1050685905289602</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02969848675251868</v>
+        <v>0.03317939301271241</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>67</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2207915086.584299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3978704970.006765</v>
+        <v>4881400451.5794</v>
       </c>
       <c r="F81" t="n">
-        <v>0.131504570284285</v>
+        <v>0.119370393947414</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0273018651470998</v>
+        <v>0.03069384562328589</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1989352447.441944</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4894832054.835339</v>
+        <v>3452764196.567427</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1845511371632898</v>
+        <v>0.1692948010401528</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02239024202841939</v>
+        <v>0.02083300337215167</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>112</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2447416017.2179</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2399919419.506608</v>
+        <v>1613742548.060994</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1564115818132521</v>
+        <v>0.1278698270198333</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03361264273727412</v>
+        <v>0.03251397323250646</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1199959744.864422</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2352979532.895646</v>
+        <v>2228108623.309234</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09333599586331354</v>
+        <v>0.08688073647344494</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04406026575429061</v>
+        <v>0.05140803645188433</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1176489719.772489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3201984340.596806</v>
+        <v>3041824073.194191</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1424605300008241</v>
+        <v>0.1669282110731939</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0451843225438679</v>
+        <v>0.04586670758156602</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>120</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1600992252.774388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2602123100.802596</v>
+        <v>2178312907.294248</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1535076332876829</v>
+        <v>0.1254054308929175</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02708694798373008</v>
+        <v>0.02599547967287619</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>44</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1301061661.77282</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1151287154.439355</v>
+        <v>1074126923.643704</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1575386592582306</v>
+        <v>0.1590945984627855</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03307772417433123</v>
+        <v>0.04285741332362923</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>575643620.3211403</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2751012162.850451</v>
+        <v>2558228187.886889</v>
       </c>
       <c r="F88" t="n">
-        <v>0.138258669568846</v>
+        <v>0.1403297416186965</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03858072953956268</v>
+        <v>0.03361047986258497</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>126</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1375506087.264398</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2299303153.046511</v>
+        <v>3197855025.013463</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09677003674894906</v>
+        <v>0.09780263330519338</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02994460699412371</v>
+        <v>0.0352795756557501</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>107</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1149651666.013198</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2082160021.75022</v>
+        <v>2157557912.021671</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1278125207895758</v>
+        <v>0.1325513301234697</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04907492698302537</v>
+        <v>0.05544312227464506</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1041080096.145526</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2017940542.889881</v>
+        <v>1774087051.722894</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1597549103407726</v>
+        <v>0.1837897091598559</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04387873233444665</v>
+        <v>0.05110940524414588</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1008970241.309494</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2918676909.517577</v>
+        <v>2649111457.170775</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1021765859010181</v>
+        <v>0.1027609543425399</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03140715788765155</v>
+        <v>0.03907412693397446</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>84</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1459338470.350865</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3349192144.341329</v>
+        <v>4443930174.521129</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1276884196866978</v>
+        <v>0.09635881414981964</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04538630097290342</v>
+        <v>0.03813060669632237</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>99</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1674596114.856939</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2089013219.170624</v>
+        <v>1545444150.802919</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1636614696655931</v>
+        <v>0.1544940322642619</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04030383799879558</v>
+        <v>0.03947758730535919</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1044506619.583689</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2314663873.20096</v>
+        <v>2688317844.292557</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1010124682623615</v>
+        <v>0.1236560299321178</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04357955584725737</v>
+        <v>0.03527768399045578</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>77</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1157331986.180887</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2380743632.707534</v>
+        <v>2172260133.716045</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1101823757333794</v>
+        <v>0.1199555983864779</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04677340506223415</v>
+        <v>0.04418911435570445</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1190371762.704757</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3562198690.850859</v>
+        <v>5031436861.077432</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1712356645898789</v>
+        <v>0.1439159885998642</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02873405073493284</v>
+        <v>0.02134130063621299</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>103</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1781099366.608481</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2653666646.062159</v>
+        <v>2826353164.826583</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1265886182980255</v>
+        <v>0.109473730481487</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02363883388461257</v>
+        <v>0.02876742875993311</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>87</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1326833284.224987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2643107043.4911</v>
+        <v>2234240069.844462</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1143274306751678</v>
+        <v>0.1133214135946011</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0313107830049094</v>
+        <v>0.02574578031671212</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1321553481.8503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4278473137.389733</v>
+        <v>3247946475.67896</v>
       </c>
       <c r="F100" t="n">
-        <v>0.13618654784527</v>
+        <v>0.1199896213640646</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02491058207227156</v>
+        <v>0.02497160557229835</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>99</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2139236661.61663</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3172906963.784649</v>
+        <v>3244021534.450654</v>
       </c>
       <c r="F101" t="n">
-        <v>0.175233494048933</v>
+        <v>0.1750601792783284</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05433150187982377</v>
+        <v>0.03867114407226671</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>128</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1586453593.789759</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_319.xlsx
+++ b/output/fit_clients/fit_round_319.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1843091924.707517</v>
+        <v>2362889745.64714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09887091052014511</v>
+        <v>0.08285304604206709</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04007173048458162</v>
+        <v>0.03470671520386007</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2403655269.72918</v>
+        <v>2165124400.700022</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1660796958097407</v>
+        <v>0.1712988739377801</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03338684338670821</v>
+        <v>0.04276409976094913</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3676009058.963361</v>
+        <v>4138488778.922918</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1240992469991885</v>
+        <v>0.1370635736110873</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02383477248211358</v>
+        <v>0.03252306554372649</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3253962109.573893</v>
+        <v>3576678838.137815</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08815574960519838</v>
+        <v>0.097500022715027</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03151829048355807</v>
+        <v>0.03670735811893714</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2592601372.036513</v>
+        <v>1883980432.675635</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1069466724882469</v>
+        <v>0.1112956871769026</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05194803794441511</v>
+        <v>0.04112978874790036</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1989414478.276813</v>
+        <v>2049690809.360422</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09423526015341158</v>
+        <v>0.07417861107856624</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04105152580254994</v>
+        <v>0.03016050094269909</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2480383869.713015</v>
+        <v>2818290193.309747</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1839919921776973</v>
+        <v>0.1345867275986434</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02398881388082077</v>
+        <v>0.02444259409799964</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1865947831.725215</v>
+        <v>2214594044.110785</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1329301300596768</v>
+        <v>0.1701703454434689</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03731472109952754</v>
+        <v>0.02868418161574599</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5116749077.708504</v>
+        <v>5251937275.465794</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1448432621503828</v>
+        <v>0.2067309893459503</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04603200512254115</v>
+        <v>0.03868337443844241</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3099287474.628683</v>
+        <v>2692189770.325761</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1257068960504573</v>
+        <v>0.1181499980400387</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03131423399254842</v>
+        <v>0.04944767549425012</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2541415946.285537</v>
+        <v>2911311769.076909</v>
       </c>
       <c r="F12" t="n">
-        <v>0.174669598622934</v>
+        <v>0.1505742072892203</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04890502258762788</v>
+        <v>0.03661599262973891</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4996857547.45876</v>
+        <v>3945507831.684888</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09234157496802212</v>
+        <v>0.07378743817599205</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02136036146353329</v>
+        <v>0.01890525018036138</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3461174183.632008</v>
+        <v>3122631260.86963</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1495680482673372</v>
+        <v>0.1688788207465725</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03769764412761727</v>
+        <v>0.03871022505882614</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1440831574.315031</v>
+        <v>1769760367.026468</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08169277045080273</v>
+        <v>0.07031633656249549</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02985483623136795</v>
+        <v>0.03200370548252537</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2663636970.193446</v>
+        <v>2306134481.087336</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08889617610327721</v>
+        <v>0.1040314606291834</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04353685301471256</v>
+        <v>0.0410716496464549</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5094193218.286672</v>
+        <v>3472256318.609776</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1282284591645162</v>
+        <v>0.1501812527570243</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04918340416032946</v>
+        <v>0.04687854578155016</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3603328076.508701</v>
+        <v>3847679723.609376</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1333005745564809</v>
+        <v>0.125741801604866</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02396781045674173</v>
+        <v>0.0269214400997735</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1279462873.962192</v>
+        <v>1262979327.087664</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1858655827581107</v>
+        <v>0.1361358322177381</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0264119483560282</v>
+        <v>0.02052214924436991</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2598002927.773314</v>
+        <v>2696938984.417377</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1062120967837494</v>
+        <v>0.1432789413122642</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02628908762495188</v>
+        <v>0.02644685571077518</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1969402657.785266</v>
+        <v>2125442468.039</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06897204433197829</v>
+        <v>0.07674733247411379</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04058873195542179</v>
+        <v>0.03243584647897319</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2739944599.858714</v>
+        <v>3370927088.741286</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1371450014508362</v>
+        <v>0.1128580360755617</v>
       </c>
       <c r="G22" t="n">
-        <v>0.036068378447868</v>
+        <v>0.03491400924097946</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1545209521.284186</v>
+        <v>1094573333.283005</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1742082942987069</v>
+        <v>0.1437075433800333</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04244889802759284</v>
+        <v>0.04886713086317271</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2545508830.38097</v>
+        <v>3292357952.895755</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1349412519945109</v>
+        <v>0.1500979034344871</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0371174693758289</v>
+        <v>0.02328597841768111</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1018230850.475324</v>
+        <v>1107269880.609352</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0764373513576035</v>
+        <v>0.1050484752331804</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02578455351074326</v>
+        <v>0.02923102414435651</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1005610586.076477</v>
+        <v>906030550.4166651</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08539261315877537</v>
+        <v>0.1014353852406788</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03322691231082327</v>
+        <v>0.0314147298130791</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3023152898.382471</v>
+        <v>4311519203.331282</v>
       </c>
       <c r="F27" t="n">
-        <v>0.134247417953969</v>
+        <v>0.09793384120529816</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02362886803138984</v>
+        <v>0.0216996709814819</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2402146480.144006</v>
+        <v>2971104045.161102</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1022750660119304</v>
+        <v>0.1384493828987144</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04896358713417003</v>
+        <v>0.03675807258560512</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5767069417.608051</v>
+        <v>4658601956.250726</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1359315177948249</v>
+        <v>0.1153383097799238</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0447700901513101</v>
+        <v>0.0285801488579384</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2320863872.657385</v>
+        <v>1727984381.458678</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1083213562473196</v>
+        <v>0.1057749739623399</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02891996166655258</v>
+        <v>0.02828369421874303</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1253502192.358305</v>
+        <v>1357297433.43699</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07754375651349847</v>
+        <v>0.08682341083446735</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03778064393377507</v>
+        <v>0.04821543170168021</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1370549365.172129</v>
+        <v>1875521721.849667</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08313896889815421</v>
+        <v>0.09190798469621374</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0277614655500731</v>
+        <v>0.02415401215393535</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2930810467.171493</v>
+        <v>2057852625.827899</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2072720326433493</v>
+        <v>0.1469523602997675</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04562783616348718</v>
+        <v>0.0513248418191288</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1520340473.41085</v>
+        <v>1274497289.231067</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07689283605441155</v>
+        <v>0.08763916010089945</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02485748010937935</v>
+        <v>0.02560916481764022</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1347850132.032888</v>
+        <v>1204634266.307739</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08899605364560878</v>
+        <v>0.07675501502353073</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03722694447541851</v>
+        <v>0.02740920677017446</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2775709805.753992</v>
+        <v>2104074180.860935</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1124748931063264</v>
+        <v>0.148523387226432</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02481913618545515</v>
+        <v>0.02793768962972831</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2859414831.261177</v>
+        <v>2025038861.216645</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09920756000725969</v>
+        <v>0.10476183944057</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02829849743767986</v>
+        <v>0.0354682985844095</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2144324557.045778</v>
+        <v>1607965211.953365</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1171916873224275</v>
+        <v>0.09715599254222185</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03740730920402226</v>
+        <v>0.03542028909441426</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2023626440.812373</v>
+        <v>1952627073.114849</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1527824260358134</v>
+        <v>0.1453636270512965</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02192521112080291</v>
+        <v>0.03244774528606437</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1338674225.671173</v>
+        <v>1773654936.982273</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1098821212338028</v>
+        <v>0.1093244325695849</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04116235780872408</v>
+        <v>0.05048781677568061</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1948706918.987087</v>
+        <v>2839162277.773345</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1132460605316544</v>
+        <v>0.1272944303355132</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04395264077186248</v>
+        <v>0.03365080314367649</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3698489132.618079</v>
+        <v>4039026637.129423</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1199721562570476</v>
+        <v>0.09664014231181042</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0454961779533606</v>
+        <v>0.04201991282962723</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2678390940.681967</v>
+        <v>2432120073.078673</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1810669316311405</v>
+        <v>0.1713685964930651</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0229487453191053</v>
+        <v>0.02446122602624909</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2141858167.885244</v>
+        <v>1972547583.718204</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08361541872505029</v>
+        <v>0.08765616263935259</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03224303401173145</v>
+        <v>0.02897237503182799</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1579919659.698374</v>
+        <v>1692924706.770326</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1215496271526045</v>
+        <v>0.137506355084789</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03968275829465061</v>
+        <v>0.04508241208404425</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3891222419.85399</v>
+        <v>5206493529.4047</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1413711598650456</v>
+        <v>0.1590417118267829</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0389712648193133</v>
+        <v>0.05237393557092301</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3913305960.780338</v>
+        <v>4736288984.474757</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1416012359238513</v>
+        <v>0.1228999417334674</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04591206911806667</v>
+        <v>0.04767892070812452</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4148087320.394104</v>
+        <v>3292834605.997713</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09322709448533972</v>
+        <v>0.08194557210450169</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03212866947558837</v>
+        <v>0.02978187317201862</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1800697752.794724</v>
+        <v>1989503964.950655</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1191616180131743</v>
+        <v>0.1399541125720125</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04252983012080541</v>
+        <v>0.03978148076342849</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4140782980.703069</v>
+        <v>2950011323.819338</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1531280890380989</v>
+        <v>0.1421659077041251</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05289656675984348</v>
+        <v>0.04330519000315032</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1428105279.87625</v>
+        <v>1003303179.721834</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1659124486818177</v>
+        <v>0.1425014193515671</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03714903356453406</v>
+        <v>0.048964221771295</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3842839491.024068</v>
+        <v>3238627683.360233</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1173861721422459</v>
+        <v>0.1260765446373885</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04898002410454477</v>
+        <v>0.05400334966324373</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2856249046.07318</v>
+        <v>3143929037.659787</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1271973973082312</v>
+        <v>0.1272947392164402</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03132744826602014</v>
+        <v>0.03211654464802326</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4087564707.751054</v>
+        <v>4509260410.039411</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1699079118217774</v>
+        <v>0.1318227846990639</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04686952476016173</v>
+        <v>0.03630632991550225</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4199432443.356846</v>
+        <v>3980983680.119604</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1807602375918267</v>
+        <v>0.1637755655085677</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02193282998723796</v>
+        <v>0.02965757287645799</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1532205912.940899</v>
+        <v>1447149187.942256</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1255930531926432</v>
+        <v>0.1157310737281866</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05458029416702859</v>
+        <v>0.04988769578813284</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3266143638.470098</v>
+        <v>3753767232.690291</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1505852278031403</v>
+        <v>0.1593330902662523</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02220064521319843</v>
+        <v>0.02019985518418493</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1702602921.453966</v>
+        <v>1680528097.051105</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1914490653780655</v>
+        <v>0.1652124262483446</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03382783648845792</v>
+        <v>0.0314387669215654</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3702821500.434088</v>
+        <v>4050983964.119111</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09476654995037941</v>
+        <v>0.09399551554646035</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03699313472101998</v>
+        <v>0.03514591778366958</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3551101634.097849</v>
+        <v>2681779961.212154</v>
       </c>
       <c r="F60" t="n">
-        <v>0.203710926566492</v>
+        <v>0.1795547556860897</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02988698675725876</v>
+        <v>0.03134098578043368</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2736170774.750943</v>
+        <v>2809792383.804737</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1365252415970568</v>
+        <v>0.1461425119493978</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02448576821006283</v>
+        <v>0.02348008816970534</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1867632774.246041</v>
+        <v>1510242373.184865</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1648822264196751</v>
+        <v>0.1283466472200998</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04393366416154001</v>
+        <v>0.03466043098607254</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5536927426.453852</v>
+        <v>5084695306.437422</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08410886320398935</v>
+        <v>0.07012237542156347</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03231957519264095</v>
+        <v>0.02932426987737288</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3895610393.126032</v>
+        <v>4882057840.821615</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1160421039352615</v>
+        <v>0.1188357067425573</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02199209623076242</v>
+        <v>0.02241442508840663</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5403082190.659055</v>
+        <v>5512930124.95287</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1627424093861762</v>
+        <v>0.1744755085816033</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03233856039730663</v>
+        <v>0.02062102161625261</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4813053054.126001</v>
+        <v>3606365304.54637</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1011412862729308</v>
+        <v>0.1375533685704739</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04990939383985052</v>
+        <v>0.03999841969668045</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2310524436.120086</v>
+        <v>2191555483.598371</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08718871147319956</v>
+        <v>0.06943342875682451</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03139995832277323</v>
+        <v>0.04329458883304792</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5603947538.678747</v>
+        <v>5128345581.50965</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1300400165456948</v>
+        <v>0.1213251973540214</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03789666686116288</v>
+        <v>0.03420504786173165</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2012296261.180905</v>
+        <v>1952270901.595535</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1371715146989003</v>
+        <v>0.1758761164617511</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04759346944194232</v>
+        <v>0.04074739867240328</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3390276457.909874</v>
+        <v>3554736914.71052</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07851613369731933</v>
+        <v>0.08378509919523031</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0309986463679582</v>
+        <v>0.04050345326935799</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3963954604.121378</v>
+        <v>3696055965.537909</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1856565450365533</v>
+        <v>0.1777902562350543</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02991612511377481</v>
+        <v>0.0326815303655846</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1504059241.026585</v>
+        <v>1779375684.032022</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06828960020974904</v>
+        <v>0.06705033145925646</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04408163873465688</v>
+        <v>0.0514778316057479</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2338154148.517511</v>
+        <v>2705008709.486568</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0908407462292264</v>
+        <v>0.08394164312130961</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03909788724810514</v>
+        <v>0.04845828813034471</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3109298691.347067</v>
+        <v>3074947550.507974</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1528603124361269</v>
+        <v>0.176725994341339</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03401645713112689</v>
+        <v>0.02492904842009352</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1789431673.729265</v>
+        <v>1580805162.031935</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1663265713019921</v>
+        <v>0.1352096159000716</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03292489189652371</v>
+        <v>0.03205275027979593</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5019156798.114468</v>
+        <v>4698426290.913726</v>
       </c>
       <c r="F76" t="n">
-        <v>0.100321849919446</v>
+        <v>0.07695073352039362</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02422629759480413</v>
+        <v>0.02539075884552821</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1850202664.60671</v>
+        <v>1433970417.744046</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1216119138151447</v>
+        <v>0.1810251841180797</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02824477907504694</v>
+        <v>0.02845685717800149</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4002923086.880892</v>
+        <v>3240216107.130269</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1170625886792854</v>
+        <v>0.09502581655471294</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04612805360016028</v>
+        <v>0.04904279631197799</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1582972936.16106</v>
+        <v>1836853372.779413</v>
       </c>
       <c r="F79" t="n">
-        <v>0.134953053684761</v>
+        <v>0.1553168131178252</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03252512000936196</v>
+        <v>0.03208306918043587</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4019359431.567235</v>
+        <v>3443929953.678864</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1050685905289602</v>
+        <v>0.1107654024056351</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03317939301271241</v>
+        <v>0.03444180382292897</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4881400451.5794</v>
+        <v>4556547834.082603</v>
       </c>
       <c r="F81" t="n">
-        <v>0.119370393947414</v>
+        <v>0.1097729817612258</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03069384562328589</v>
+        <v>0.02110639555892165</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3452764196.567427</v>
+        <v>5525076706.285175</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1692948010401528</v>
+        <v>0.2085784439307241</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02083300337215167</v>
+        <v>0.02116985458197623</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1613742548.060994</v>
+        <v>1777140343.342909</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1278698270198333</v>
+        <v>0.1120193226733296</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03251397323250646</v>
+        <v>0.0301782974165526</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2228108623.309234</v>
+        <v>2562917201.165731</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08688073647344494</v>
+        <v>0.09787440890272638</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05140803645188433</v>
+        <v>0.05104593316824978</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3041824073.194191</v>
+        <v>3539664629.370585</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1669282110731939</v>
+        <v>0.1761689376708283</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04586670758156602</v>
+        <v>0.04512282449797864</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2178312907.294248</v>
+        <v>2294467334.414824</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1254054308929175</v>
+        <v>0.1252817358414026</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02599547967287619</v>
+        <v>0.02755043495416596</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1074126923.643704</v>
+        <v>1295426197.726524</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1590945984627855</v>
+        <v>0.1620912565091567</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04285741332362923</v>
+        <v>0.04076131070117855</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2558228187.886889</v>
+        <v>3284267910.476152</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1403297416186965</v>
+        <v>0.1355517671321252</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03361047986258497</v>
+        <v>0.03731897927939772</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3197855025.013463</v>
+        <v>2615696781.873113</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09780263330519338</v>
+        <v>0.1428585851440192</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0352795756557501</v>
+        <v>0.0343752777082607</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2157557912.021671</v>
+        <v>1987772881.277327</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1325513301234697</v>
+        <v>0.1185686269031743</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05544312227464506</v>
+        <v>0.05293176847942052</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1774087051.722894</v>
+        <v>2025488534.736591</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1837897091598559</v>
+        <v>0.1861647074098566</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05110940524414588</v>
+        <v>0.04424145084331681</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2649111457.170775</v>
+        <v>2241075623.631439</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1027609543425399</v>
+        <v>0.08524458092865757</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03907412693397446</v>
+        <v>0.033256469266636</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4443930174.521129</v>
+        <v>3367486138.206819</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09635881414981964</v>
+        <v>0.1208402712768777</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03813060669632237</v>
+        <v>0.0473251586271223</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1545444150.802919</v>
+        <v>1751309369.28955</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1544940322642619</v>
+        <v>0.1286638091446204</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03947758730535919</v>
+        <v>0.03103880362784234</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2688317844.292557</v>
+        <v>3090304775.424494</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1236560299321178</v>
+        <v>0.1110171415543422</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03527768399045578</v>
+        <v>0.04998722929009558</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2172260133.716045</v>
+        <v>1685055899.244865</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1199555983864779</v>
+        <v>0.1081520812789798</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04418911435570445</v>
+        <v>0.03974612724815894</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5031436861.077432</v>
+        <v>4254607208.693795</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1439159885998642</v>
+        <v>0.1131703137188733</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02134130063621299</v>
+        <v>0.02649534951262329</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2826353164.826583</v>
+        <v>2950764626.850537</v>
       </c>
       <c r="F98" t="n">
-        <v>0.109473730481487</v>
+        <v>0.1285970185634851</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02876742875993311</v>
+        <v>0.0250439946441341</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2234240069.844462</v>
+        <v>3380334735.814371</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1133214135946011</v>
+        <v>0.1178074853896395</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02574578031671212</v>
+        <v>0.02920425739630892</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3247946475.67896</v>
+        <v>3499301709.234695</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1199896213640646</v>
+        <v>0.1604730863048215</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02497160557229835</v>
+        <v>0.02822040780078555</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3244021534.450654</v>
+        <v>2802991576.029748</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1750601792783284</v>
+        <v>0.1460696471733534</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03867114407226671</v>
+        <v>0.04839536870785497</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_319.xlsx
+++ b/output/fit_clients/fit_round_319.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2362889745.64714</v>
+        <v>2304273110.652915</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08285304604206709</v>
+        <v>0.07160686535887785</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03470671520386007</v>
+        <v>0.03563921725788083</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2165124400.700022</v>
+        <v>1608044232.812792</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1712988739377801</v>
+        <v>0.1498242378684903</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04276409976094913</v>
+        <v>0.03856654221491388</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4138488778.922918</v>
+        <v>4594461605.082511</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1370635736110873</v>
+        <v>0.1570905623183894</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03252306554372649</v>
+        <v>0.02870329760698087</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>167</v>
+      </c>
+      <c r="J4" t="n">
+        <v>318</v>
+      </c>
+      <c r="K4" t="n">
+        <v>74.10954421580661</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3576678838.137815</v>
+        <v>2863240549.877881</v>
       </c>
       <c r="F5" t="n">
-        <v>0.097500022715027</v>
+        <v>0.07651123805391274</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03670735811893714</v>
+        <v>0.04314810838090751</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>127</v>
+      </c>
+      <c r="J5" t="n">
+        <v>318</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46.70474942096109</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1883980432.675635</v>
+        <v>2146473897.79081</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1112956871769026</v>
+        <v>0.104927587670702</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04112978874790036</v>
+        <v>0.03607067772790589</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2049690809.360422</v>
+        <v>2983499001.475586</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07417861107856624</v>
+        <v>0.09103678282618717</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03016050094269909</v>
+        <v>0.03961908275909041</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2818290193.309747</v>
+        <v>2841439915.203803</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1345867275986434</v>
+        <v>0.214363747469556</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02444259409799964</v>
+        <v>0.02923486285189342</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>85</v>
+      </c>
+      <c r="J8" t="n">
+        <v>314</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2214594044.110785</v>
+        <v>1799345360.923509</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1701703454434689</v>
+        <v>0.1624879166826886</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02868418161574599</v>
+        <v>0.02573782933823444</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5251937275.465794</v>
+        <v>4259082630.836295</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2067309893459503</v>
+        <v>0.1303753781936428</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03868337443844241</v>
+        <v>0.0448967932823369</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>278</v>
+      </c>
+      <c r="J10" t="n">
+        <v>319</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2692189770.325761</v>
+        <v>3288238803.858102</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1181499980400387</v>
+        <v>0.1220074133286879</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04944767549425012</v>
+        <v>0.04985010329962312</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>130</v>
+      </c>
+      <c r="J11" t="n">
+        <v>318</v>
+      </c>
+      <c r="K11" t="n">
+        <v>56.39935367389342</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2911311769.076909</v>
+        <v>3283256590.092081</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1505742072892203</v>
+        <v>0.1901903852466196</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03661599262973891</v>
+        <v>0.05123962855514441</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3945507831.684888</v>
+        <v>4853798105.564593</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07378743817599205</v>
+        <v>0.08189252220538791</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01890525018036138</v>
+        <v>0.02515874525071354</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>164</v>
+      </c>
+      <c r="J13" t="n">
+        <v>319</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3122631260.86963</v>
+        <v>3498344679.656118</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1688788207465725</v>
+        <v>0.1597419962286773</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03871022505882614</v>
+        <v>0.03694012590933699</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>310</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1769760367.026468</v>
+        <v>1585845580.387987</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07031633656249549</v>
+        <v>0.08956981511875671</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03200370548252537</v>
+        <v>0.03771793768589721</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2306134481.087336</v>
+        <v>2030547108.247052</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1040314606291834</v>
+        <v>0.07519277150987543</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0410716496464549</v>
+        <v>0.03318625399864537</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3472256318.609776</v>
+        <v>5040191474.263781</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1501812527570243</v>
+        <v>0.1738568891481591</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04687854578155016</v>
+        <v>0.0446597530938672</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>318</v>
+      </c>
+      <c r="K17" t="n">
+        <v>73.77189698364839</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3847679723.609376</v>
+        <v>3651918328.282395</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125741801604866</v>
+        <v>0.1722670544367273</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0269214400997735</v>
+        <v>0.03222946679270552</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>78</v>
+      </c>
+      <c r="J18" t="n">
+        <v>319</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1262979327.087664</v>
+        <v>1229725802.745593</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1361358322177381</v>
+        <v>0.1376377151426086</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02052214924436991</v>
+        <v>0.0260708517446357</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2696938984.417377</v>
+        <v>2101375570.994401</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1432789413122642</v>
+        <v>0.1593527371708529</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02644685571077518</v>
+        <v>0.01942033636497442</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2125442468.039</v>
+        <v>2690123267.622309</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07674733247411379</v>
+        <v>0.09477834909788597</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03243584647897319</v>
+        <v>0.04194212332157051</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3370927088.741286</v>
+        <v>3702634451.106699</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1128580360755617</v>
+        <v>0.135553151819628</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03491400924097946</v>
+        <v>0.03691765747046254</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>86</v>
+      </c>
+      <c r="J22" t="n">
+        <v>319</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1094573333.283005</v>
+        <v>1167201435.800325</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1437075433800333</v>
+        <v>0.1333413001855046</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04886713086317271</v>
+        <v>0.05080087450101627</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3292357952.895755</v>
+        <v>2680918440.492648</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1500979034344871</v>
+        <v>0.1058245335255164</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02328597841768111</v>
+        <v>0.02659489387004305</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>95</v>
+      </c>
+      <c r="J24" t="n">
+        <v>316</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1107269880.609352</v>
+        <v>1028898093.910587</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1050484752331804</v>
+        <v>0.09265843904070271</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02923102414435651</v>
+        <v>0.02703070680453108</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>906030550.4166651</v>
+        <v>1251811457.79641</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1014353852406788</v>
+        <v>0.07537296134690143</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0314147298130791</v>
+        <v>0.02767454532397922</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4311519203.331282</v>
+        <v>4443190154.038877</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09793384120529816</v>
+        <v>0.1338508551673281</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0216996709814819</v>
+        <v>0.01863928117410742</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>132</v>
+      </c>
+      <c r="J27" t="n">
+        <v>318</v>
+      </c>
+      <c r="K27" t="n">
+        <v>72.77792357571501</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2971104045.161102</v>
+        <v>3796779354.075999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1384493828987144</v>
+        <v>0.09865957356133437</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03675807258560512</v>
+        <v>0.03990138696178175</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>68</v>
+      </c>
+      <c r="J28" t="n">
+        <v>319</v>
+      </c>
+      <c r="K28" t="n">
+        <v>79.70481484821288</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4658601956.250726</v>
+        <v>5529549007.558565</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1153383097799238</v>
+        <v>0.1001937433976582</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0285801488579384</v>
+        <v>0.03480452771047626</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>295</v>
+      </c>
+      <c r="J29" t="n">
+        <v>318</v>
+      </c>
+      <c r="K29" t="n">
+        <v>74.82677045413696</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1727984381.458678</v>
+        <v>1626116170.397746</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1057749739623399</v>
+        <v>0.1049727937712953</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02828369421874303</v>
+        <v>0.02837788731357043</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1357297433.43699</v>
+        <v>936429651.6029938</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08682341083446735</v>
+        <v>0.08576875679735931</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04821543170168021</v>
+        <v>0.03665693027259895</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1875521721.849667</v>
+        <v>1354929000.796862</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09190798469621374</v>
+        <v>0.08687726790737227</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02415401215393535</v>
+        <v>0.03519945965972939</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2057852625.827899</v>
+        <v>3032273110.796777</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1469523602997675</v>
+        <v>0.1541143760926854</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0513248418191288</v>
+        <v>0.04768473221274543</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1274497289.231067</v>
+        <v>1026738190.455921</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08763916010089945</v>
+        <v>0.09362797431406186</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02560916481764022</v>
+        <v>0.02115630573568536</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1204634266.307739</v>
+        <v>1120235013.867855</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07675501502353073</v>
+        <v>0.1038859223405602</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02740920677017446</v>
+        <v>0.03679838223095924</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2104074180.860935</v>
+        <v>2067235653.880145</v>
       </c>
       <c r="F36" t="n">
-        <v>0.148523387226432</v>
+        <v>0.1490337154656914</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02793768962972831</v>
+        <v>0.02896811676619213</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2025038861.216645</v>
+        <v>2836579440.790037</v>
       </c>
       <c r="F37" t="n">
-        <v>0.10476183944057</v>
+        <v>0.07655324669871105</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0354682985844095</v>
+        <v>0.03936099967277574</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1607965211.953365</v>
+        <v>1909617822.740555</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09715599254222185</v>
+        <v>0.1190567492365927</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03542028909441426</v>
+        <v>0.02877537913732144</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1952627073.114849</v>
+        <v>1612935726.618005</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1453636270512965</v>
+        <v>0.1593537638913957</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03244774528606437</v>
+        <v>0.02743425551515196</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1773654936.982273</v>
+        <v>1779169094.645791</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1093244325695849</v>
+        <v>0.1350958370285183</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05048781677568061</v>
+        <v>0.03919392010958327</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2839162277.773345</v>
+        <v>2075752384.979856</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1272944303355132</v>
+        <v>0.1659680523180839</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03365080314367649</v>
+        <v>0.03122431108225355</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4039026637.129423</v>
+        <v>3029834474.026953</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09664014231181042</v>
+        <v>0.08705083560684873</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04201991282962723</v>
+        <v>0.03371757009458358</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>131</v>
+      </c>
+      <c r="J42" t="n">
+        <v>318</v>
+      </c>
+      <c r="K42" t="n">
+        <v>50.06927190744435</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2432120073.078673</v>
+        <v>2732763893.251842</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1713685964930651</v>
+        <v>0.1493503614191947</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02446122602624909</v>
+        <v>0.02056118895124501</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1972547583.718204</v>
+        <v>1926004695.50358</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08765616263935259</v>
+        <v>0.06838533391957403</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02897237503182799</v>
+        <v>0.02399777601257239</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1692924706.770326</v>
+        <v>2299387344.137198</v>
       </c>
       <c r="F45" t="n">
-        <v>0.137506355084789</v>
+        <v>0.1810345294430373</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04508241208404425</v>
+        <v>0.0364972209020009</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5206493529.4047</v>
+        <v>3500538195.219492</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1590417118267829</v>
+        <v>0.1201137133590398</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05237393557092301</v>
+        <v>0.04652952960798955</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>191</v>
+      </c>
+      <c r="J46" t="n">
+        <v>318</v>
+      </c>
+      <c r="K46" t="n">
+        <v>56.38123690284486</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4736288984.474757</v>
+        <v>4000733269.213428</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1228999417334674</v>
+        <v>0.160161427450405</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04767892070812452</v>
+        <v>0.05137648812364783</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>142</v>
+      </c>
+      <c r="J47" t="n">
+        <v>318</v>
+      </c>
+      <c r="K47" t="n">
+        <v>65.72053398981036</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2131,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3292834605.997713</v>
+        <v>3793002770.200149</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08194557210450169</v>
+        <v>0.08442637226898639</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02978187317201862</v>
+        <v>0.03436384273138941</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>159</v>
+      </c>
+      <c r="J48" t="n">
+        <v>319</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1989503964.950655</v>
+        <v>1531581803.649158</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1399541125720125</v>
+        <v>0.1663373498483618</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03978148076342849</v>
+        <v>0.03292699537099433</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2195,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2950011323.819338</v>
+        <v>4052357238.256599</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1421659077041251</v>
+        <v>0.1311230862954113</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04330519000315032</v>
+        <v>0.03770535202602865</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>103</v>
+      </c>
+      <c r="J50" t="n">
+        <v>319</v>
+      </c>
+      <c r="K50" t="n">
+        <v>82.58654301035365</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1003303179.721834</v>
+        <v>999775629.9783298</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1425014193515671</v>
+        <v>0.1846710699033727</v>
       </c>
       <c r="G51" t="n">
-        <v>0.048964221771295</v>
+        <v>0.0355363475589049</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2273,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3238627683.360233</v>
+        <v>4419546119.09339</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1260765446373885</v>
+        <v>0.115073155882935</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05400334966324373</v>
+        <v>0.05177539068020619</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>194</v>
+      </c>
+      <c r="J52" t="n">
+        <v>318</v>
+      </c>
+      <c r="K52" t="n">
+        <v>73.50435471042944</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3143929037.659787</v>
+        <v>3778383847.26321</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1272947392164402</v>
+        <v>0.1818897815128527</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03211654464802326</v>
+        <v>0.0253400423177223</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>45</v>
+      </c>
+      <c r="J53" t="n">
+        <v>319</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2345,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4509260410.039411</v>
+        <v>3117442003.100827</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1318227846990639</v>
+        <v>0.115517324769427</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03630632991550225</v>
+        <v>0.05093277652954772</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>168</v>
+      </c>
+      <c r="J54" t="n">
+        <v>318</v>
+      </c>
+      <c r="K54" t="n">
+        <v>44.51420363370668</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2376,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3980983680.119604</v>
+        <v>4370913258.891975</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1637755655085677</v>
+        <v>0.1732656970158279</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02965757287645799</v>
+        <v>0.02345949822599062</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>148</v>
+      </c>
+      <c r="J55" t="n">
+        <v>319</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1447149187.942256</v>
+        <v>1797201709.382419</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1157310737281866</v>
+        <v>0.1268136139941065</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04988769578813284</v>
+        <v>0.03645575159414019</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2446,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3753767232.690291</v>
+        <v>4377078971.257799</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1593330902662523</v>
+        <v>0.1834001118480223</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02019985518418493</v>
+        <v>0.02476978324787893</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>131</v>
+      </c>
+      <c r="J57" t="n">
+        <v>319</v>
+      </c>
+      <c r="K57" t="n">
+        <v>78.63116406782657</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2483,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1680528097.051105</v>
+        <v>1238665066.607059</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1652124262483446</v>
+        <v>0.1839673915961523</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0314387669215654</v>
+        <v>0.03359048952763286</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2524,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4050983964.119111</v>
+        <v>3458948627.653144</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09399551554646035</v>
+        <v>0.1243693236486303</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03514591778366958</v>
+        <v>0.04051431338518128</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>154</v>
+      </c>
+      <c r="J59" t="n">
+        <v>317</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2681779961.212154</v>
+        <v>2453362050.037922</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1795547556860897</v>
+        <v>0.151715402782066</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03134098578043368</v>
+        <v>0.03022143326906642</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>55</v>
+      </c>
+      <c r="J60" t="n">
+        <v>316</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2809792383.804737</v>
+        <v>3365873983.832388</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1461425119493978</v>
+        <v>0.1169286128357255</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02348008816970534</v>
+        <v>0.02609064052269286</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1510242373.184865</v>
+        <v>1762545460.586102</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1283466472200998</v>
+        <v>0.1263382111462258</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03466043098607254</v>
+        <v>0.03294245312189747</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2658,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5084695306.437422</v>
+        <v>5418477993.515715</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07012237542156347</v>
+        <v>0.0740657965728708</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02932426987737288</v>
+        <v>0.03968619349861055</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>155</v>
+      </c>
+      <c r="J63" t="n">
+        <v>318</v>
+      </c>
+      <c r="K63" t="n">
+        <v>74.68502683852259</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2701,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4882057840.821615</v>
+        <v>3884004494.259027</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1188357067425573</v>
+        <v>0.1370902144942807</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02241442508840663</v>
+        <v>0.03086969837719996</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>158</v>
+      </c>
+      <c r="J64" t="n">
+        <v>318</v>
+      </c>
+      <c r="K64" t="n">
+        <v>67.51737340789485</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2738,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5512930124.95287</v>
+        <v>5488844434.537118</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1744755085816033</v>
+        <v>0.1160777194931605</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02062102161625261</v>
+        <v>0.02246362343528891</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>251</v>
+      </c>
+      <c r="J65" t="n">
+        <v>319</v>
+      </c>
+      <c r="K65" t="n">
+        <v>74.86494097607421</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2769,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3606365304.54637</v>
+        <v>3777358580.763666</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1375533685704739</v>
+        <v>0.1318758458115422</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03999841969668045</v>
+        <v>0.03747974527273636</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>157</v>
+      </c>
+      <c r="J66" t="n">
+        <v>319</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2804,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2191555483.598371</v>
+        <v>3410987310.425115</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06943342875682451</v>
+        <v>0.09015452329869339</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04329458883304792</v>
+        <v>0.04230866457003533</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2839,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5128345581.50965</v>
+        <v>3853202404.147667</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1213251973540214</v>
+        <v>0.1497896319639707</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03420504786173165</v>
+        <v>0.03246055430641322</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>172</v>
+      </c>
+      <c r="J68" t="n">
+        <v>318</v>
+      </c>
+      <c r="K68" t="n">
+        <v>67.13688162751187</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2876,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1952270901.595535</v>
+        <v>1590594330.786268</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1758761164617511</v>
+        <v>0.1687531738514791</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04074739867240328</v>
+        <v>0.05054503689258919</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2911,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3554736914.71052</v>
+        <v>2327069838.20932</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08378509919523031</v>
+        <v>0.07506708146984827</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04050345326935799</v>
+        <v>0.04601920969581586</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>47</v>
+      </c>
+      <c r="J70" t="n">
+        <v>313</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2946,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3696055965.537909</v>
+        <v>3861387919.649547</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1777902562350543</v>
+        <v>0.1771302623628511</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0326815303655846</v>
+        <v>0.02053333055030249</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>235</v>
+      </c>
+      <c r="J71" t="n">
+        <v>319</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2981,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1779375684.032022</v>
+        <v>2004721534.359433</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06705033145925646</v>
+        <v>0.0682183460428539</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0514778316057479</v>
+        <v>0.03923624142740752</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3016,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2705008709.486568</v>
+        <v>2211912924.773495</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08394164312130961</v>
+        <v>0.07972543039693548</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04845828813034471</v>
+        <v>0.03864472998845048</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3051,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3074947550.507974</v>
+        <v>3422448349.575897</v>
       </c>
       <c r="F74" t="n">
-        <v>0.176725994341339</v>
+        <v>0.1155392759666767</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02492904842009352</v>
+        <v>0.0214969776048367</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>83</v>
+      </c>
+      <c r="J74" t="n">
+        <v>315</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1580805162.031935</v>
+        <v>1957184091.209747</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1352096159000716</v>
+        <v>0.1520692149477683</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03205275027979593</v>
+        <v>0.03757369226667794</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3121,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4698426290.913726</v>
+        <v>4993840323.839052</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07695073352039362</v>
+        <v>0.1028227905908775</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02539075884552821</v>
+        <v>0.02944281050340154</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>150</v>
+      </c>
+      <c r="J76" t="n">
+        <v>319</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1433970417.744046</v>
+        <v>1483585835.069749</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1810251841180797</v>
+        <v>0.1194646674385051</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02845685717800149</v>
+        <v>0.02909004053411481</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3197,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3240216107.130269</v>
+        <v>3329059306.121926</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09502581655471294</v>
+        <v>0.1099768832326416</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04904279631197799</v>
+        <v>0.0409368141520336</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>158</v>
+      </c>
+      <c r="J78" t="n">
+        <v>317</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1836853372.779413</v>
+        <v>1821483478.004745</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1553168131178252</v>
+        <v>0.1377333162100115</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03208306918043587</v>
+        <v>0.03671188448655315</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3443929953.678864</v>
+        <v>4578123334.637424</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1107654024056351</v>
+        <v>0.08432990956939104</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03444180382292897</v>
+        <v>0.03877158336027661</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>156</v>
+      </c>
+      <c r="J80" t="n">
+        <v>318</v>
+      </c>
+      <c r="K80" t="n">
+        <v>58.00472996687058</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4556547834.082603</v>
+        <v>4696791141.520991</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1097729817612258</v>
+        <v>0.1047287072077745</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02110639555892165</v>
+        <v>0.03224679713711216</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>147</v>
+      </c>
+      <c r="J81" t="n">
+        <v>319</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5525076706.285175</v>
+        <v>4224510656.599974</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2085784439307241</v>
+        <v>0.2061587981952475</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02116985458197623</v>
+        <v>0.02352905791753731</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>230</v>
+      </c>
+      <c r="J82" t="n">
+        <v>319</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1777140343.342909</v>
+        <v>2030657952.743208</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1120193226733296</v>
+        <v>0.1243877961493773</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0301782974165526</v>
+        <v>0.0344582489416441</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2562917201.165731</v>
+        <v>2253378408.475673</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09787440890272638</v>
+        <v>0.07986057124032181</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05104593316824978</v>
+        <v>0.04655897583286308</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3539664629.370585</v>
+        <v>2367068472.561826</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1761689376708283</v>
+        <v>0.1786686425880551</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04512282449797864</v>
+        <v>0.05685924887372608</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>42</v>
+      </c>
+      <c r="J85" t="n">
+        <v>315</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2294467334.414824</v>
+        <v>2116100149.379484</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1252817358414026</v>
+        <v>0.159458650410873</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02755043495416596</v>
+        <v>0.02033165837988729</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1295426197.726524</v>
+        <v>1157156961.53104</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1620912565091567</v>
+        <v>0.1859560546572124</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04076131070117855</v>
+        <v>0.04075401621916748</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3284267910.476152</v>
+        <v>3632587010.359198</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1355517671321252</v>
+        <v>0.1477455841786928</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03731897927939772</v>
+        <v>0.03383701859759403</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>319</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2615696781.873113</v>
+        <v>3267804587.618355</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1428585851440192</v>
+        <v>0.1081460087098159</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0343752777082607</v>
+        <v>0.02689851003047977</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>314</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1987772881.277327</v>
+        <v>1681048373.848258</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1185686269031743</v>
+        <v>0.09081937644914585</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05293176847942052</v>
+        <v>0.03673590047641426</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2025488534.736591</v>
+        <v>1700159747.263636</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1861647074098566</v>
+        <v>0.1581595460516403</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04424145084331681</v>
+        <v>0.03769025011059905</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2241075623.631439</v>
+        <v>1963826244.524217</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08524458092865757</v>
+        <v>0.08238664954062985</v>
       </c>
       <c r="G92" t="n">
-        <v>0.033256469266636</v>
+        <v>0.04069966509662738</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3367486138.206819</v>
+        <v>4824925318.513242</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1208402712768777</v>
+        <v>0.1200708167263546</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0473251586271223</v>
+        <v>0.03522962984449001</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>143</v>
+      </c>
+      <c r="J93" t="n">
+        <v>319</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1751309369.28955</v>
+        <v>1894129404.587937</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1286638091446204</v>
+        <v>0.1385800681799071</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03103880362784234</v>
+        <v>0.02957227875323755</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3090304775.424494</v>
+        <v>2509362981.906595</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1110171415543422</v>
+        <v>0.1146002590071187</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04998722929009558</v>
+        <v>0.04482049070774744</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1685055899.244865</v>
+        <v>1865848273.900883</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1081520812789798</v>
+        <v>0.09116807734755171</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03974612724815894</v>
+        <v>0.04151416554190331</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4254607208.693795</v>
+        <v>5330991684.215209</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1131703137188733</v>
+        <v>0.1083668523873175</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02649534951262329</v>
+        <v>0.02003628899820036</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>162</v>
+      </c>
+      <c r="J97" t="n">
+        <v>319</v>
+      </c>
+      <c r="K97" t="n">
+        <v>77.33027815470665</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2950764626.850537</v>
+        <v>3062131101.362529</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1285970185634851</v>
+        <v>0.1226422335764545</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0250439946441341</v>
+        <v>0.02633287655807</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>79</v>
+      </c>
+      <c r="J98" t="n">
+        <v>317</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3380334735.814371</v>
+        <v>3093410150.386507</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1178074853896395</v>
+        <v>0.1303285838987737</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02920425739630892</v>
+        <v>0.0315621631426256</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3499301709.234695</v>
+        <v>3685064024.407898</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1604730863048215</v>
+        <v>0.1324392210394029</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02822040780078555</v>
+        <v>0.01993947853272302</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>140</v>
+      </c>
+      <c r="J100" t="n">
+        <v>319</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2802991576.029748</v>
+        <v>3297175433.73004</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1460696471733534</v>
+        <v>0.1973771854572485</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04839536870785497</v>
+        <v>0.0399976525345155</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
